--- a/data/trans_orig/P15-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P15-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>53086</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>41036</v>
+        <v>40582</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>69229</v>
+        <v>68289</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1074470208548716</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08305742358286379</v>
+        <v>0.0821396481232579</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1401207297774157</v>
+        <v>0.1382181481946026</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>23</v>
@@ -765,19 +765,19 @@
         <v>22468</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>15052</v>
+        <v>14527</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>32703</v>
+        <v>33528</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04806157193742839</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03219827724745179</v>
+        <v>0.03107452571644938</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06995412639216625</v>
+        <v>0.07171893122835597</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>76</v>
@@ -786,19 +786,19 @@
         <v>75554</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>60864</v>
+        <v>60865</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>93038</v>
+        <v>92340</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07857492460096402</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06329757820550441</v>
+        <v>0.06329910778953154</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09675801157782958</v>
+        <v>0.09603221276567912</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>440978</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>424835</v>
+        <v>425775</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>453028</v>
+        <v>453482</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8925529791451283</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8598792702225843</v>
+        <v>0.8617818518053973</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9169425764171363</v>
+        <v>0.917860351876742</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>466</v>
@@ -836,19 +836,19 @@
         <v>445021</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>434786</v>
+        <v>433961</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>452437</v>
+        <v>452962</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9519384280625716</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9300458736078339</v>
+        <v>0.9282810687716441</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9678017227525483</v>
+        <v>0.9689254742835506</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>912</v>
@@ -857,19 +857,19 @@
         <v>885999</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>868515</v>
+        <v>869213</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>900689</v>
+        <v>900688</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.921425075399036</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9032419884221705</v>
+        <v>0.903967787234321</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9367024217944956</v>
+        <v>0.9367008922104684</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>64515</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>51445</v>
+        <v>50737</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>83671</v>
+        <v>81078</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08771709878334348</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06994646454534517</v>
+        <v>0.0689835813729883</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1137622734664716</v>
+        <v>0.1102365853858644</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>32</v>
@@ -982,19 +982,19 @@
         <v>35269</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>24648</v>
+        <v>25212</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>49121</v>
+        <v>48993</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05638620944097276</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0394053721966074</v>
+        <v>0.04030786786612243</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07853154703517286</v>
+        <v>0.07832656096655011</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>94</v>
@@ -1003,19 +1003,19 @@
         <v>99784</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>81769</v>
+        <v>81910</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>119722</v>
+        <v>122458</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0733177375500314</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06008052339294658</v>
+        <v>0.06018444940768718</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08796733282210338</v>
+        <v>0.08997758926397133</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>670974</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>651818</v>
+        <v>654411</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>684044</v>
+        <v>684752</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9122829012166566</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8862377265335284</v>
+        <v>0.8897634146141357</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9300535354546547</v>
+        <v>0.9310164186270117</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>559</v>
@@ -1053,19 +1053,19 @@
         <v>590225</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>576373</v>
+        <v>576501</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>600846</v>
+        <v>600282</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9436137905590273</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9214684529648272</v>
+        <v>0.9216734390334499</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9605946278033927</v>
+        <v>0.9596921321338776</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1200</v>
@@ -1074,19 +1074,19 @@
         <v>1261198</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1241260</v>
+        <v>1238524</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1279213</v>
+        <v>1279072</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9266822624499687</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9120326671778967</v>
+        <v>0.9100224107360289</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9399194766070534</v>
+        <v>0.9398155505923134</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>45889</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>33245</v>
+        <v>33732</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>60082</v>
+        <v>62050</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07185089916114146</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0520534742875787</v>
+        <v>0.05281673690248083</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09407378599580936</v>
+        <v>0.0971548941569253</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>20</v>
@@ -1199,19 +1199,19 @@
         <v>20157</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>12583</v>
+        <v>12401</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>30225</v>
+        <v>31316</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02922357167093957</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01824250739087306</v>
+        <v>0.01797941313004498</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04382122324858059</v>
+        <v>0.04540251505169692</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>63</v>
@@ -1220,19 +1220,19 @@
         <v>66046</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>50002</v>
+        <v>50783</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>83735</v>
+        <v>82682</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04971773730237825</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03764010974367143</v>
+        <v>0.03822840825746809</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06303385825709988</v>
+        <v>0.0622411069659775</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>592779</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>578586</v>
+        <v>576618</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>605423</v>
+        <v>604936</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9281491008388586</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9059262140041905</v>
+        <v>0.9028451058430746</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.947946525712421</v>
+        <v>0.9471832630975192</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>638</v>
@@ -1270,19 +1270,19 @@
         <v>669587</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>659519</v>
+        <v>658428</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>677161</v>
+        <v>677343</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9707764283290604</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9561787767514193</v>
+        <v>0.9545974849483039</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9817574926091268</v>
+        <v>0.982020586869955</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1208</v>
@@ -1291,19 +1291,19 @@
         <v>1262366</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1244677</v>
+        <v>1245730</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1278410</v>
+        <v>1277629</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9502822626976217</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9369661417429</v>
+        <v>0.9377588930340225</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9623598902563286</v>
+        <v>0.9617715917425319</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>41139</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>30310</v>
+        <v>30399</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>55240</v>
+        <v>55934</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07924338796954583</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05838489163667269</v>
+        <v>0.05855655680728005</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1064047322085976</v>
+        <v>0.1077418075917346</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>19</v>
@@ -1416,19 +1416,19 @@
         <v>19886</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12095</v>
+        <v>12574</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>29734</v>
+        <v>30169</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03856455695665836</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02345593206472444</v>
+        <v>0.02438518788141176</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05766313221436881</v>
+        <v>0.05850849349527414</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>58</v>
@@ -1437,19 +1437,19 @@
         <v>61024</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>45955</v>
+        <v>47671</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>76781</v>
+        <v>80057</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05897286643321948</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04441004982077382</v>
+        <v>0.04606814621896196</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07419961823520388</v>
+        <v>0.07736516676857344</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>478008</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>463907</v>
+        <v>463213</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>488837</v>
+        <v>488748</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9207566120304542</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8935952677914026</v>
+        <v>0.8922581924082655</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9416151083633273</v>
+        <v>0.9414434431927201</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>483</v>
@@ -1487,19 +1487,19 @@
         <v>495756</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>485908</v>
+        <v>485473</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>503547</v>
+        <v>503068</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9614354430433416</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9423368677856312</v>
+        <v>0.9414915065047259</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9765440679352758</v>
+        <v>0.9756148121185882</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>928</v>
@@ -1508,19 +1508,19 @@
         <v>973765</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>958008</v>
+        <v>954732</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>988834</v>
+        <v>987118</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9410271335667805</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9258003817647962</v>
+        <v>0.9226348332314265</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9555899501792263</v>
+        <v>0.9539318537810381</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>18836</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>12335</v>
+        <v>11131</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>27799</v>
+        <v>28273</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04870821845406604</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03189681804441603</v>
+        <v>0.02878433766660886</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07188545484838102</v>
+        <v>0.07311108115676641</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>18</v>
@@ -1633,19 +1633,19 @@
         <v>17804</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>10786</v>
+        <v>10895</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>26657</v>
+        <v>26698</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04407086977389497</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.026699597079619</v>
+        <v>0.02696843266250189</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06598586302186867</v>
+        <v>0.06608690992920074</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>37</v>
@@ -1654,19 +1654,19 @@
         <v>36640</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>26205</v>
+        <v>27320</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>48215</v>
+        <v>50756</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04633888332034906</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03314105600881153</v>
+        <v>0.03455191229958922</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06097852020052307</v>
+        <v>0.06419204984094307</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>367874</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>358911</v>
+        <v>358437</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>374375</v>
+        <v>375579</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.951291781545934</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.928114545151619</v>
+        <v>0.9268889188432337</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9681031819555839</v>
+        <v>0.9712156623333912</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>378</v>
@@ -1704,19 +1704,19 @@
         <v>386182</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>377329</v>
+        <v>377288</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>393200</v>
+        <v>393091</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.955929130226105</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9340141369781312</v>
+        <v>0.9339130900707993</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9733004029203809</v>
+        <v>0.9730315673374981</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>751</v>
@@ -1725,19 +1725,19 @@
         <v>754056</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>742481</v>
+        <v>739940</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>764491</v>
+        <v>763376</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9536611166796509</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9390214797994766</v>
+        <v>0.9358079501590569</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9668589439911885</v>
+        <v>0.9654480877004108</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>10770</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5970</v>
+        <v>5548</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>17730</v>
+        <v>17820</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0368089117183948</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02040523158076327</v>
+        <v>0.01896077408088239</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06059791701697581</v>
+        <v>0.06090600410681862</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>27</v>
@@ -1850,19 +1850,19 @@
         <v>25638</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>17569</v>
+        <v>17856</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>35985</v>
+        <v>36774</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0747603153025011</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0512301541035487</v>
+        <v>0.0520692708307147</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1049340595010771</v>
+        <v>0.1072345498697558</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>39</v>
@@ -1871,19 +1871,19 @@
         <v>36408</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>26325</v>
+        <v>25891</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>48879</v>
+        <v>48681</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05728802811503113</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04142343152843666</v>
+        <v>0.04074069242871657</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07691251974795153</v>
+        <v>0.07659994895931743</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>281813</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>274853</v>
+        <v>274763</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>286613</v>
+        <v>287035</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9631910882816052</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9394020829830242</v>
+        <v>0.9390939958931812</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9795947684192367</v>
+        <v>0.9810392259191176</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>344</v>
@@ -1921,19 +1921,19 @@
         <v>317296</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>306949</v>
+        <v>306160</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>325365</v>
+        <v>325078</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9252396846974988</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8950659404989231</v>
+        <v>0.8927654501302444</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9487698458964514</v>
+        <v>0.9479307291692854</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>635</v>
@@ -1942,19 +1942,19 @@
         <v>599109</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>586638</v>
+        <v>586836</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>609192</v>
+        <v>609626</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9427119718849689</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9230874802520483</v>
+        <v>0.9234000510406823</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9585765684715634</v>
+        <v>0.9592593075712832</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>8822</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4491</v>
+        <v>3727</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>17062</v>
+        <v>16352</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04203463899541417</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02139821005515026</v>
+        <v>0.01775861125473937</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08129138243861371</v>
+        <v>0.07790867730816492</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>30</v>
@@ -2067,19 +2067,19 @@
         <v>34169</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>22887</v>
+        <v>24089</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>47095</v>
+        <v>47499</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1023305561735093</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0685425215100491</v>
+        <v>0.0721436360267099</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1410422751731177</v>
+        <v>0.1422503747404839</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>39</v>
@@ -2088,19 +2088,19 @@
         <v>42991</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>31362</v>
+        <v>31003</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>59119</v>
+        <v>57547</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07905858511272405</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05767226553195755</v>
+        <v>0.05701218952530047</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1087167550701554</v>
+        <v>0.1058264054147036</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>201061</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>192821</v>
+        <v>193531</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>205392</v>
+        <v>206156</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9579653610045858</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9187086175613866</v>
+        <v>0.9220913226918351</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9786017899448498</v>
+        <v>0.9822413887452606</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>260</v>
@@ -2138,19 +2138,19 @@
         <v>299739</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>286813</v>
+        <v>286409</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>311021</v>
+        <v>309819</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8976694438264907</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8589577248268818</v>
+        <v>0.8577496252595158</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9314574784899509</v>
+        <v>0.9278563639732901</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>471</v>
@@ -2159,19 +2159,19 @@
         <v>500800</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>484672</v>
+        <v>486244</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>512429</v>
+        <v>512788</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.920941414887276</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8912832449298443</v>
+        <v>0.8941735945852965</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9423277344680424</v>
+        <v>0.9429878104746995</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>243056</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>214716</v>
+        <v>215255</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>274575</v>
+        <v>273284</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07418074369571771</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0655313656296177</v>
+        <v>0.06569570807364032</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08380017648223406</v>
+        <v>0.08340620574547908</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>169</v>
@@ -2284,19 +2284,19 @@
         <v>175391</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>150456</v>
+        <v>151351</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>202505</v>
+        <v>203945</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05190305141419276</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04452412536923828</v>
+        <v>0.04478898497681795</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05992705410673227</v>
+        <v>0.06035305627790653</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>406</v>
@@ -2305,19 +2305,19 @@
         <v>418447</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>380167</v>
+        <v>380493</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>459138</v>
+        <v>459902</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0628700989478881</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05711861997450685</v>
+        <v>0.05716766111040313</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06898373240783388</v>
+        <v>0.06909854299452332</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>3033487</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3001968</v>
+        <v>3003259</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3061827</v>
+        <v>3061288</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9258192563042823</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.916199823517766</v>
+        <v>0.9165937942545209</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9344686343703825</v>
+        <v>0.9343042919263597</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3128</v>
@@ -2355,19 +2355,19 @@
         <v>3203806</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3176692</v>
+        <v>3175252</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3228741</v>
+        <v>3227846</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9480969485858073</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9400729458932681</v>
+        <v>0.9396469437220937</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9554758746307618</v>
+        <v>0.9552110150231821</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6105</v>
@@ -2376,19 +2376,19 @@
         <v>6237294</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6196603</v>
+        <v>6195839</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6275574</v>
+        <v>6275248</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9371299010521119</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.931016267592166</v>
+        <v>0.9309014570054767</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.942881380025493</v>
+        <v>0.9428323388895968</v>
       </c>
     </row>
     <row r="27">
@@ -2723,19 +2723,19 @@
         <v>59630</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>44745</v>
+        <v>46316</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>73894</v>
+        <v>74436</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.131301007769927</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09852492315073222</v>
+        <v>0.1019848809355864</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1627094243526523</v>
+        <v>0.1639039218741638</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>32</v>
@@ -2744,19 +2744,19 @@
         <v>31675</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>22787</v>
+        <v>22274</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>43356</v>
+        <v>43569</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07362315885310579</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05296572308766628</v>
+        <v>0.05177223287825378</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1007748481894856</v>
+        <v>0.1012681660350181</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>93</v>
@@ -2765,19 +2765,19 @@
         <v>91305</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>74966</v>
+        <v>74852</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>110672</v>
+        <v>111014</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1032419798630767</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08476670924864878</v>
+        <v>0.08463855697313177</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1251416054134269</v>
+        <v>0.1255285796059533</v>
       </c>
     </row>
     <row r="5">
@@ -2794,19 +2794,19 @@
         <v>394516</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>380252</v>
+        <v>379710</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>409401</v>
+        <v>407830</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8686989922300731</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8372905756473479</v>
+        <v>0.8360960781258359</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.901475076849268</v>
+        <v>0.8980151190644134</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>389</v>
@@ -2815,19 +2815,19 @@
         <v>398555</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>386874</v>
+        <v>386661</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>407443</v>
+        <v>407956</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9263768411468942</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8992251518105143</v>
+        <v>0.8987318339649819</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.947034276912334</v>
+        <v>0.9482277671217462</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>774</v>
@@ -2836,19 +2836,19 @@
         <v>793071</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>773704</v>
+        <v>773362</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>809410</v>
+        <v>809524</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8967580201369233</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8748583945865731</v>
+        <v>0.8744714203940467</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.915233290751351</v>
+        <v>0.9153614430268682</v>
       </c>
     </row>
     <row r="6">
@@ -2940,19 +2940,19 @@
         <v>82320</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>65919</v>
+        <v>66376</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>100403</v>
+        <v>100500</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1198097539983788</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0959398963340303</v>
+        <v>0.09660535865757378</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1461287381680229</v>
+        <v>0.1462698805310378</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>36</v>
@@ -2961,19 +2961,19 @@
         <v>39074</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>28364</v>
+        <v>28222</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>53290</v>
+        <v>53295</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0640284524270109</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04647908659484921</v>
+        <v>0.04624559002567796</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08732406048320011</v>
+        <v>0.08733238275336569</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>116</v>
@@ -2982,19 +2982,19 @@
         <v>121393</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>102388</v>
+        <v>100441</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>147721</v>
+        <v>144719</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09357085229068729</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07892114458694303</v>
+        <v>0.07742049751097353</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1138641800639624</v>
+        <v>0.1115506195127138</v>
       </c>
     </row>
     <row r="8">
@@ -3011,19 +3011,19 @@
         <v>604767</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>586684</v>
+        <v>586587</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>621168</v>
+        <v>620711</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8801902460016211</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8538712618319767</v>
+        <v>0.853730119468962</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9040601036659697</v>
+        <v>0.9033946413424262</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>535</v>
@@ -3032,19 +3032,19 @@
         <v>571181</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>556965</v>
+        <v>556960</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>581891</v>
+        <v>582033</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9359715475729891</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9126759395167994</v>
+        <v>0.9126676172466341</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9535209134051505</v>
+        <v>0.9537544099743219</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1122</v>
@@ -3053,19 +3053,19 @@
         <v>1175949</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1149621</v>
+        <v>1152623</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1194954</v>
+        <v>1196901</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9064291477093127</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8861358199360377</v>
+        <v>0.8884493804872863</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.921078855413057</v>
+        <v>0.9225795024890266</v>
       </c>
     </row>
     <row r="9">
@@ -3157,19 +3157,19 @@
         <v>56566</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>42951</v>
+        <v>42122</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>74073</v>
+        <v>75459</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08295812507434491</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06299119518667802</v>
+        <v>0.06177468208228794</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1086339622057571</v>
+        <v>0.1106663609808484</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>29</v>
@@ -3178,19 +3178,19 @@
         <v>29388</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>20815</v>
+        <v>20302</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>41894</v>
+        <v>41038</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04134179700998303</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02928126339167895</v>
+        <v>0.0285601989463489</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0589353711818145</v>
+        <v>0.05773096889599812</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>80</v>
@@ -3199,19 +3199,19 @@
         <v>85954</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>68750</v>
+        <v>68835</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>107641</v>
+        <v>106600</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06171687362451888</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04936413912945581</v>
+        <v>0.04942537031089045</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07728894842827463</v>
+        <v>0.07654146595726682</v>
       </c>
     </row>
     <row r="11">
@@ -3228,19 +3228,19 @@
         <v>625297</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>607790</v>
+        <v>606404</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>638912</v>
+        <v>639741</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.917041874925655</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8913660377942428</v>
+        <v>0.889333639019152</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9370088048133218</v>
+        <v>0.9382253179177126</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>638</v>
@@ -3249,19 +3249,19 @@
         <v>681462</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>668956</v>
+        <v>669812</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>690035</v>
+        <v>690548</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.958658202990017</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9410646288181859</v>
+        <v>0.9422690311040017</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9707187366083211</v>
+        <v>0.9714398010536511</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1238</v>
@@ -3270,19 +3270,19 @@
         <v>1306758</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1285071</v>
+        <v>1286112</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1323962</v>
+        <v>1323877</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9382831263754812</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9227110515717254</v>
+        <v>0.9234585340427336</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9506358608705442</v>
+        <v>0.9505746296891096</v>
       </c>
     </row>
     <row r="12">
@@ -3374,19 +3374,19 @@
         <v>37146</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>26909</v>
+        <v>27483</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>50521</v>
+        <v>51587</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06043819409938483</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04378108475307303</v>
+        <v>0.04471563666356774</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0821988881600724</v>
+        <v>0.08393435850379888</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>31</v>
@@ -3395,19 +3395,19 @@
         <v>36056</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>25077</v>
+        <v>24589</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>50630</v>
+        <v>50087</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05851305336679378</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0406961365614987</v>
+        <v>0.03990418007952478</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0821643958070878</v>
+        <v>0.08128452892413288</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>66</v>
@@ -3416,19 +3416,19 @@
         <v>73202</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>58675</v>
+        <v>58299</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>91674</v>
+        <v>93579</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05947438618683733</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04767164594937644</v>
+        <v>0.04736621876044524</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07448217762494308</v>
+        <v>0.07603007261558845</v>
       </c>
     </row>
     <row r="14">
@@ -3445,19 +3445,19 @@
         <v>577471</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>564096</v>
+        <v>563030</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>587708</v>
+        <v>587134</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9395618059006152</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9178011118399279</v>
+        <v>0.9160656414962016</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.956218915246927</v>
+        <v>0.9552843633364323</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>508</v>
@@ -3466,19 +3466,19 @@
         <v>580143</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>565569</v>
+        <v>566112</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>591122</v>
+        <v>591610</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9414869466332062</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9178356041929122</v>
+        <v>0.9187154710758672</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9593038634385013</v>
+        <v>0.9600958199204752</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1021</v>
@@ -3487,19 +3487,19 @@
         <v>1157614</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1139142</v>
+        <v>1137237</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1172141</v>
+        <v>1172517</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9405256138131627</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.925517822375057</v>
+        <v>0.9239699273844116</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9523283540506237</v>
+        <v>0.9526337812395548</v>
       </c>
     </row>
     <row r="15">
@@ -3591,19 +3591,19 @@
         <v>12921</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6545</v>
+        <v>6542</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>21748</v>
+        <v>21372</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0300880941198113</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0152403364003453</v>
+        <v>0.01523376335376464</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05064398674027319</v>
+        <v>0.04976784810915389</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>38</v>
@@ -3612,19 +3612,19 @@
         <v>41757</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>30209</v>
+        <v>30071</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>56255</v>
+        <v>56737</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09324978795813835</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06746186429198735</v>
+        <v>0.06715198156348798</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1256254860790952</v>
+        <v>0.1267012488603942</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>50</v>
@@ -3633,19 +3633,19 @@
         <v>54678</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>41467</v>
+        <v>41000</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>71218</v>
+        <v>70805</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06233030378638822</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04727095493703266</v>
+        <v>0.0467382294546484</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08118538461649168</v>
+        <v>0.08071457532651961</v>
       </c>
     </row>
     <row r="17">
@@ -3662,19 +3662,19 @@
         <v>416508</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>407681</v>
+        <v>408057</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>422884</v>
+        <v>422887</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9699119058801887</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9493560132597264</v>
+        <v>0.950232151890846</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9847596635996546</v>
+        <v>0.9847662366462353</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>368</v>
@@ -3683,19 +3683,19 @@
         <v>406043</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>391545</v>
+        <v>391063</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>417591</v>
+        <v>417729</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9067502120418617</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8743745139209049</v>
+        <v>0.8732987511396059</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9325381357080126</v>
+        <v>0.932848018436512</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>749</v>
@@ -3704,19 +3704,19 @@
         <v>822551</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>806011</v>
+        <v>806424</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>835762</v>
+        <v>836229</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9376696962136117</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9188146153835083</v>
+        <v>0.9192854246734804</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9527290450629673</v>
+        <v>0.9532617705453515</v>
       </c>
     </row>
     <row r="18">
@@ -3808,19 +3808,19 @@
         <v>17298</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>10223</v>
+        <v>10668</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>27801</v>
+        <v>27891</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05583943955646556</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03299978277028803</v>
+        <v>0.03443706460273192</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08974169257078669</v>
+        <v>0.09003400252233745</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>26</v>
@@ -3829,19 +3829,19 @@
         <v>25331</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>16451</v>
+        <v>17452</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>35898</v>
+        <v>36481</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07155753636320761</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04647304681236455</v>
+        <v>0.0493009429344641</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1014068857818603</v>
+        <v>0.1030556416408993</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>42</v>
@@ -3850,19 +3850,19 @@
         <v>42629</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>31159</v>
+        <v>31412</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>56289</v>
+        <v>56438</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06422192336747856</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04694094974531354</v>
+        <v>0.04732239082738757</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08480105884037221</v>
+        <v>0.08502464766060616</v>
       </c>
     </row>
     <row r="20">
@@ -3879,19 +3879,19 @@
         <v>292488</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>281985</v>
+        <v>281895</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>299563</v>
+        <v>299118</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9441605604435345</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9102583074292135</v>
+        <v>0.9099659974776628</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9670002172297121</v>
+        <v>0.9655629353972686</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>318</v>
@@ -3900,19 +3900,19 @@
         <v>328665</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>318098</v>
+        <v>317515</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>337545</v>
+        <v>336544</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9284424636367924</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8985931142181398</v>
+        <v>0.8969443583591008</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9535269531876357</v>
+        <v>0.9506990570655359</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>584</v>
@@ -3921,19 +3921,19 @@
         <v>621153</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>607493</v>
+        <v>607344</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>632623</v>
+        <v>632370</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9357780766325214</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9151989411596277</v>
+        <v>0.9149753523393938</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9530590502546864</v>
+        <v>0.9526776091726123</v>
       </c>
     </row>
     <row r="21">
@@ -4025,19 +4025,19 @@
         <v>22032</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>14350</v>
+        <v>14396</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>31691</v>
+        <v>33102</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08818087016331197</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05743329812499524</v>
+        <v>0.05761815387243707</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1268381650973248</v>
+        <v>0.1324849828849813</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>49</v>
@@ -4046,19 +4046,19 @@
         <v>54192</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>40779</v>
+        <v>41563</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>69819</v>
+        <v>69888</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1393182140468475</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.104836651310711</v>
+        <v>0.1068515416235014</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1794935210864454</v>
+        <v>0.1796692225557765</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>70</v>
@@ -4067,19 +4067,19 @@
         <v>76224</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>60561</v>
+        <v>61898</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>94679</v>
+        <v>94834</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1193180387411501</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09479939779434066</v>
+        <v>0.09689309140466584</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1482061740591508</v>
+        <v>0.1484501550532689</v>
       </c>
     </row>
     <row r="23">
@@ -4096,19 +4096,19 @@
         <v>227819</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>218160</v>
+        <v>216749</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>235501</v>
+        <v>235455</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.911819129836688</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8731618349026751</v>
+        <v>0.8675150171150197</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9425667018750047</v>
+        <v>0.9423818461275636</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>301</v>
@@ -4117,19 +4117,19 @@
         <v>334787</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>319160</v>
+        <v>319091</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>348200</v>
+        <v>347416</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8606817859531525</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8205064789135547</v>
+        <v>0.8203307774442231</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.895163348689289</v>
+        <v>0.8931484583764984</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>502</v>
@@ -4138,19 +4138,19 @@
         <v>562606</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>544151</v>
+        <v>543996</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>578269</v>
+        <v>576932</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8806819612588499</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8517938259408492</v>
+        <v>0.8515498449467311</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9052006022056593</v>
+        <v>0.9031069085953343</v>
       </c>
     </row>
     <row r="24">
@@ -4242,19 +4242,19 @@
         <v>287913</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>256635</v>
+        <v>255202</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>321162</v>
+        <v>320955</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0840185607854334</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.07489102728451762</v>
+        <v>0.07447272804580804</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.09372113854246493</v>
+        <v>0.09366076894361532</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>241</v>
@@ -4263,19 +4263,19 @@
         <v>257472</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>226602</v>
+        <v>229898</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>289792</v>
+        <v>293609</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07235804472465752</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06368237157492769</v>
+        <v>0.06460890310234906</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08144079426792912</v>
+        <v>0.0825135538443319</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>517</v>
@@ -4284,19 +4284,19 @@
         <v>545385</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>501870</v>
+        <v>501743</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>589969</v>
+        <v>590242</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07807851814310154</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07184875164190303</v>
+        <v>0.07183064796786121</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08446114883974158</v>
+        <v>0.08450028608582184</v>
       </c>
     </row>
     <row r="26">
@@ -4313,19 +4313,19 @@
         <v>3138866</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3105617</v>
+        <v>3105824</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3170144</v>
+        <v>3171577</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9159814392145665</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.906278861457535</v>
+        <v>0.9063392310563846</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9251089727154822</v>
+        <v>0.9255272719541919</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3057</v>
@@ -4334,19 +4334,19 @@
         <v>3300837</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3268517</v>
+        <v>3264700</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3331707</v>
+        <v>3328411</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9276419552753424</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9185592057320709</v>
+        <v>0.9174864461556683</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9363176284250723</v>
+        <v>0.935391096897651</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5990</v>
@@ -4355,19 +4355,19 @@
         <v>6439703</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6395119</v>
+        <v>6394846</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6483218</v>
+        <v>6483345</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9219214818568985</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9155388511602582</v>
+        <v>0.9154997139141779</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9281512483580969</v>
+        <v>0.9281693520321387</v>
       </c>
     </row>
     <row r="27">
@@ -4702,19 +4702,19 @@
         <v>43980</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>33374</v>
+        <v>32709</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>59609</v>
+        <v>57746</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1048475574332523</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07956384442168167</v>
+        <v>0.07797897650119712</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1421071664737195</v>
+        <v>0.1376656191639073</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>19</v>
@@ -4723,19 +4723,19 @@
         <v>18264</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11386</v>
+        <v>11002</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>27101</v>
+        <v>27188</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04615015137852268</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02877153566699845</v>
+        <v>0.02779982862243878</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06847800561979173</v>
+        <v>0.06869966186592281</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>60</v>
@@ -4744,19 +4744,19 @@
         <v>62244</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>47341</v>
+        <v>48595</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>77906</v>
+        <v>79885</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07635236710981885</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05807101642160852</v>
+        <v>0.05960934227291505</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09556461665497094</v>
+        <v>0.09799265215460948</v>
       </c>
     </row>
     <row r="5">
@@ -4773,19 +4773,19 @@
         <v>375483</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>359854</v>
+        <v>361717</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>386089</v>
+        <v>386754</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8951524425667476</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8578928335262812</v>
+        <v>0.8623343808360925</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9204361555783184</v>
+        <v>0.9220210234988023</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>385</v>
@@ -4794,19 +4794,19 @@
         <v>377491</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>368654</v>
+        <v>368567</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>384369</v>
+        <v>384753</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9538498486214774</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9315219943802083</v>
+        <v>0.9313003381340769</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9712284643330016</v>
+        <v>0.9722001713775612</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>737</v>
@@ -4815,19 +4815,19 @@
         <v>752974</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>737312</v>
+        <v>735333</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>767877</v>
+        <v>766623</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9236476328901811</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.904435383345029</v>
+        <v>0.9020073478453905</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9419289835783915</v>
+        <v>0.940390657727085</v>
       </c>
     </row>
     <row r="6">
@@ -4919,19 +4919,19 @@
         <v>50857</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>38507</v>
+        <v>38184</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>63919</v>
+        <v>65578</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08612606582730226</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06521074651138919</v>
+        <v>0.06466476356391843</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1082458737974623</v>
+        <v>0.1110563841983871</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>23</v>
@@ -4940,19 +4940,19 @@
         <v>22679</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>14332</v>
+        <v>14922</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>32518</v>
+        <v>33320</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04024283395789852</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02543126310180987</v>
+        <v>0.02647953190504969</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05770330679915447</v>
+        <v>0.05912644370656611</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>74</v>
@@ -4961,19 +4961,19 @@
         <v>73536</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>57248</v>
+        <v>58253</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>91886</v>
+        <v>90374</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06372025084331245</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04960653765466034</v>
+        <v>0.05047762011864575</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07962150843229361</v>
+        <v>0.07831085790225835</v>
       </c>
     </row>
     <row r="8">
@@ -4990,19 +4990,19 @@
         <v>539639</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>526577</v>
+        <v>524918</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>551989</v>
+        <v>552312</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9138739341726978</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8917541262025377</v>
+        <v>0.888943615801613</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9347892534886109</v>
+        <v>0.9353352364360815</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>556</v>
@@ -5011,19 +5011,19 @@
         <v>540865</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>531026</v>
+        <v>530224</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>549212</v>
+        <v>548622</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9597571660421015</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9422966932008459</v>
+        <v>0.9408735562934338</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9745687368981902</v>
+        <v>0.97352046809495</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1072</v>
@@ -5032,19 +5032,19 @@
         <v>1080504</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1062154</v>
+        <v>1063666</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1096792</v>
+        <v>1095787</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9362797491566875</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9203784915677067</v>
+        <v>0.9216891420977417</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9503934623453398</v>
+        <v>0.9495223798813541</v>
       </c>
     </row>
     <row r="9">
@@ -5136,19 +5136,19 @@
         <v>35858</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>24747</v>
+        <v>24718</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>49366</v>
+        <v>49091</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0535915228555927</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03698617683304262</v>
+        <v>0.0369418648806722</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07377984548409047</v>
+        <v>0.073369718083205</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>23</v>
@@ -5157,19 +5157,19 @@
         <v>25048</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>16502</v>
+        <v>16033</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>37013</v>
+        <v>37203</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03787227740723995</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02494999485652646</v>
+        <v>0.02424156293412888</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05596323139871218</v>
+        <v>0.05624996616276692</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>56</v>
@@ -5178,19 +5178,19 @@
         <v>60906</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>48310</v>
+        <v>47154</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>79436</v>
+        <v>77821</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04577744819431163</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03631004985358667</v>
+        <v>0.03544099559931586</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0597049763752124</v>
+        <v>0.05849065159314489</v>
       </c>
     </row>
     <row r="11">
@@ -5207,19 +5207,19 @@
         <v>633239</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>619731</v>
+        <v>620006</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>644350</v>
+        <v>644379</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9464084771444073</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.92622015451591</v>
+        <v>0.926630281916795</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9630138231669577</v>
+        <v>0.9630581351193277</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>642</v>
@@ -5228,19 +5228,19 @@
         <v>636338</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>624373</v>
+        <v>624183</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>644884</v>
+        <v>645353</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.96212772259276</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9440367686012877</v>
+        <v>0.9437500338372329</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9750500051434734</v>
+        <v>0.9757584370658711</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1247</v>
@@ -5249,19 +5249,19 @@
         <v>1269577</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1251047</v>
+        <v>1252662</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1282173</v>
+        <v>1283329</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9542225518056884</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9402950236247877</v>
+        <v>0.9415093484068551</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9636899501464133</v>
+        <v>0.9645590044006841</v>
       </c>
     </row>
     <row r="12">
@@ -5353,19 +5353,19 @@
         <v>28832</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>19693</v>
+        <v>19534</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>41425</v>
+        <v>40520</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0446288617286183</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03048150988592553</v>
+        <v>0.03023650265883812</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06412129908832599</v>
+        <v>0.06271983658008239</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>22</v>
@@ -5374,19 +5374,19 @@
         <v>24485</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>15220</v>
+        <v>15931</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>34911</v>
+        <v>35261</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03772296698931016</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02344896508037105</v>
+        <v>0.02454424634072603</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0537858718158478</v>
+        <v>0.05432525972682218</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>48</v>
@@ -5395,19 +5395,19 @@
         <v>53317</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>40678</v>
+        <v>39738</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>69441</v>
+        <v>70314</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04116783966694079</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03140872365483741</v>
+        <v>0.03068307947403979</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05361745856120019</v>
+        <v>0.05429113646071168</v>
       </c>
     </row>
     <row r="14">
@@ -5424,19 +5424,19 @@
         <v>617216</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>604623</v>
+        <v>605528</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>626355</v>
+        <v>626514</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9553711382713816</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.935878700911674</v>
+        <v>0.9372801634199178</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9695184901140745</v>
+        <v>0.9697634973411622</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>580</v>
@@ -5445,19 +5445,19 @@
         <v>624592</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>614166</v>
+        <v>613816</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>633857</v>
+        <v>633146</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9622770330106898</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9462141281841522</v>
+        <v>0.9456747402731778</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9765510349196289</v>
+        <v>0.9754557536592739</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1136</v>
@@ -5466,19 +5466,19 @@
         <v>1241808</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1225684</v>
+        <v>1224811</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1254447</v>
+        <v>1255387</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9588321603330592</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9463825414387999</v>
+        <v>0.9457088635392882</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9685912763451625</v>
+        <v>0.9693169205259602</v>
       </c>
     </row>
     <row r="15">
@@ -5570,19 +5570,19 @@
         <v>13989</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7561</v>
+        <v>7447</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>22697</v>
+        <v>22779</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02927141751141108</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01582111496874859</v>
+        <v>0.0155814215804489</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04749165702507643</v>
+        <v>0.04766259728715581</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>26</v>
@@ -5591,19 +5591,19 @@
         <v>30358</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>20718</v>
+        <v>20737</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>46121</v>
+        <v>43836</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06110131368048211</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04169807646426646</v>
+        <v>0.04173669109205833</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09282739401099077</v>
+        <v>0.08822887818005921</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>39</v>
@@ -5612,19 +5612,19 @@
         <v>44347</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>30499</v>
+        <v>32928</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>58946</v>
+        <v>61450</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04549545066820029</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03128882702830335</v>
+        <v>0.03378065759091538</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06047223003266409</v>
+        <v>0.06304064684965967</v>
       </c>
     </row>
     <row r="17">
@@ -5641,19 +5641,19 @@
         <v>463929</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>455221</v>
+        <v>455139</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>470357</v>
+        <v>470471</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.970728582488589</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9525083429749237</v>
+        <v>0.9523374027128442</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9841788850312514</v>
+        <v>0.9844185784195512</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>407</v>
@@ -5662,19 +5662,19 @@
         <v>466491</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>450728</v>
+        <v>453013</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>476131</v>
+        <v>476112</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9388986863195179</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9071726059890092</v>
+        <v>0.9117711218199408</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9583019235357334</v>
+        <v>0.9582633089079414</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>818</v>
@@ -5683,19 +5683,19 @@
         <v>930420</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>915821</v>
+        <v>913317</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>944268</v>
+        <v>941839</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9545045493317997</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9395277699673359</v>
+        <v>0.9369593531503404</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9687111729716967</v>
+        <v>0.9662193424090846</v>
       </c>
     </row>
     <row r="18">
@@ -5787,19 +5787,19 @@
         <v>10932</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5606</v>
+        <v>5530</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>20186</v>
+        <v>18178</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03269821281128133</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01676714820016341</v>
+        <v>0.01654196053848339</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06037891515204014</v>
+        <v>0.05437115817641691</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>28</v>
@@ -5808,19 +5808,19 @@
         <v>29301</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>20300</v>
+        <v>20121</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>41388</v>
+        <v>42588</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07756536848710521</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05373718489975802</v>
+        <v>0.05326361150200217</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1095602210730696</v>
+        <v>0.1127370301977309</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>39</v>
@@ -5829,19 +5829,19 @@
         <v>40233</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>30436</v>
+        <v>28836</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>54028</v>
+        <v>53640</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05650006220705964</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04274231391886916</v>
+        <v>0.04049496828911111</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07587203671071019</v>
+        <v>0.07532711304796801</v>
       </c>
     </row>
     <row r="20">
@@ -5858,19 +5858,19 @@
         <v>323398</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>314144</v>
+        <v>316152</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>328724</v>
+        <v>328800</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9673017871887186</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9396210848479601</v>
+        <v>0.9456288418235832</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9832328517998367</v>
+        <v>0.9834580394615167</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>326</v>
@@ -5879,19 +5879,19 @@
         <v>348461</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>336374</v>
+        <v>335174</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>357462</v>
+        <v>357641</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9224346315128948</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8904397789269303</v>
+        <v>0.887262969802269</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9462628151002419</v>
+        <v>0.9467363884979979</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>640</v>
@@ -5900,19 +5900,19 @@
         <v>671859</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>658064</v>
+        <v>658452</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>681656</v>
+        <v>683256</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9434999377929404</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9241279632892899</v>
+        <v>0.924672886952032</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9572576860811313</v>
+        <v>0.9595050317108889</v>
       </c>
     </row>
     <row r="21">
@@ -6004,19 +6004,19 @@
         <v>15185</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>9109</v>
+        <v>9704</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>23218</v>
+        <v>23388</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05908730760978728</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03544537249248306</v>
+        <v>0.03775926822976618</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09034336513665507</v>
+        <v>0.09100568301274817</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>31</v>
@@ -6025,19 +6025,19 @@
         <v>41318</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>29180</v>
+        <v>28157</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>55699</v>
+        <v>58479</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1032514117005345</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07291998850559313</v>
+        <v>0.07036296279607947</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1391897233711989</v>
+        <v>0.1461347390208899</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>49</v>
@@ -6046,19 +6046,19 @@
         <v>56503</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>41221</v>
+        <v>41779</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>74089</v>
+        <v>73244</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08598017552831574</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06272541219800129</v>
+        <v>0.0635747086537328</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.112739253181034</v>
+        <v>0.1114538027869544</v>
       </c>
     </row>
     <row r="23">
@@ -6075,19 +6075,19 @@
         <v>241813</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>233780</v>
+        <v>233610</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>247889</v>
+        <v>247294</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9409126923902127</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9096566348633449</v>
+        <v>0.9089943169872519</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9645546275075169</v>
+        <v>0.9622407317702339</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>270</v>
@@ -6096,19 +6096,19 @@
         <v>358851</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>344470</v>
+        <v>341690</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>370989</v>
+        <v>372012</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8967485882994656</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8608102766288012</v>
+        <v>0.85386526097911</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9270800114944068</v>
+        <v>0.9296370372039204</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>554</v>
@@ -6117,19 +6117,19 @@
         <v>600664</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>583078</v>
+        <v>583923</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>615946</v>
+        <v>615388</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9140198244716843</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8872607468189659</v>
+        <v>0.8885461972130456</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9372745878019989</v>
+        <v>0.9364252913462673</v>
       </c>
     </row>
     <row r="24">
@@ -6221,19 +6221,19 @@
         <v>199634</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>173432</v>
+        <v>172436</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>228601</v>
+        <v>226949</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05881354040970593</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05109440142445725</v>
+        <v>0.05080103231740923</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0673473647381875</v>
+        <v>0.06686066821998142</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>172</v>
@@ -6242,19 +6242,19 @@
         <v>191453</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>163299</v>
+        <v>164748</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>220707</v>
+        <v>219814</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05401359446578705</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04607045518126178</v>
+        <v>0.04647924367404022</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06226673053886253</v>
+        <v>0.06201478604536539</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>365</v>
@@ -6263,19 +6263,19 @@
         <v>391087</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>353966</v>
+        <v>354445</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>430722</v>
+        <v>433222</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05636162025411929</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05101192179540998</v>
+        <v>0.05108095029341373</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06207361678220056</v>
+        <v>0.06243388843123297</v>
       </c>
     </row>
     <row r="26">
@@ -6292,19 +6292,19 @@
         <v>3194716</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3165749</v>
+        <v>3167401</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3220918</v>
+        <v>3221914</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9411864595902941</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9326526352618123</v>
+        <v>0.9331393317800186</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9489055985755426</v>
+        <v>0.9491989676825909</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3166</v>
@@ -6313,19 +6313,19 @@
         <v>3353089</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3323835</v>
+        <v>3324728</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3381243</v>
+        <v>3379794</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.945986405534213</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9377332694611373</v>
+        <v>0.9379852139546342</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9539295448187383</v>
+        <v>0.9535207563259598</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6204</v>
@@ -6334,19 +6334,19 @@
         <v>6547805</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6508170</v>
+        <v>6505670</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6584926</v>
+        <v>6584447</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9436383797458807</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9379263832177995</v>
+        <v>0.937566111568767</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.94898807820459</v>
+        <v>0.9489190497065862</v>
       </c>
     </row>
     <row r="27">
@@ -6681,19 +6681,19 @@
         <v>20697</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9264</v>
+        <v>9156</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>39839</v>
+        <v>40805</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05075403366797993</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02271813000638607</v>
+        <v>0.02245293613331008</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09769490440131826</v>
+        <v>0.1000640187586185</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -6702,19 +6702,19 @@
         <v>22592</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11866</v>
+        <v>11915</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>41656</v>
+        <v>39588</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06232007783813763</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03273200611466369</v>
+        <v>0.03286687108823164</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1149091434636359</v>
+        <v>0.1092058899020268</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>19</v>
@@ -6723,19 +6723,19 @@
         <v>43289</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>26460</v>
+        <v>25604</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>67616</v>
+        <v>67660</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.05619711051400387</v>
+        <v>0.05619711051400385</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03434945107607078</v>
+        <v>0.03323861305585897</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08777807020324814</v>
+        <v>0.08783531299455213</v>
       </c>
     </row>
     <row r="5">
@@ -6752,19 +6752,19 @@
         <v>387096</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>367954</v>
+        <v>366988</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>398529</v>
+        <v>398637</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9492459663320202</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9023050955986816</v>
+        <v>0.8999359812413813</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.977281869993614</v>
+        <v>0.9775470638666895</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>196</v>
@@ -6773,19 +6773,19 @@
         <v>339920</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>320856</v>
+        <v>322924</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>350646</v>
+        <v>350597</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9376799221618622</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8850908565363659</v>
+        <v>0.8907941100979729</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9672679938853368</v>
+        <v>0.9671331289117684</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>360</v>
@@ -6794,19 +6794,19 @@
         <v>727016</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>702689</v>
+        <v>702645</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>743845</v>
+        <v>744701</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9438028894859963</v>
+        <v>0.943802889485996</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9122219297967519</v>
+        <v>0.9121646870054477</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9656505489239292</v>
+        <v>0.9667613869441412</v>
       </c>
     </row>
     <row r="6">
@@ -6898,19 +6898,19 @@
         <v>33196</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>20827</v>
+        <v>19641</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>52390</v>
+        <v>52819</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06960976404325897</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04367275636656019</v>
+        <v>0.0411864269375823</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1098586309750236</v>
+        <v>0.1107575417995972</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>15</v>
@@ -6919,19 +6919,19 @@
         <v>15337</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9254</v>
+        <v>8484</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>25961</v>
+        <v>24321</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03060674574282808</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01846702664497581</v>
+        <v>0.01693140023866824</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05181063429105098</v>
+        <v>0.04853679409467719</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>34</v>
@@ -6940,19 +6940,19 @@
         <v>48533</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>32654</v>
+        <v>33687</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>68663</v>
+        <v>69568</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.04962583214207972</v>
+        <v>0.04962583214207971</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03338942631407604</v>
+        <v>0.03444580597093187</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07021000208376073</v>
+        <v>0.07113520993587712</v>
       </c>
     </row>
     <row r="8">
@@ -6969,19 +6969,19 @@
         <v>443694</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>424500</v>
+        <v>424071</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>456063</v>
+        <v>457249</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.930390235956741</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8901413690249759</v>
+        <v>0.8892424582004027</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9563272436334392</v>
+        <v>0.9588135730624177</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>445</v>
@@ -6990,19 +6990,19 @@
         <v>485746</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>475122</v>
+        <v>476762</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>491829</v>
+        <v>492599</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9693932542571719</v>
+        <v>0.9693932542571718</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9481893657089487</v>
+        <v>0.9514632059053232</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9815329733550241</v>
+        <v>0.9830685997613318</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>728</v>
@@ -7011,19 +7011,19 @@
         <v>929440</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>909310</v>
+        <v>908405</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>945319</v>
+        <v>944286</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9503741678579202</v>
+        <v>0.9503741678579203</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9297899979162394</v>
+        <v>0.9288647900641233</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9666105736859237</v>
+        <v>0.9655541940290682</v>
       </c>
     </row>
     <row r="9">
@@ -7115,19 +7115,19 @@
         <v>38549</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>27675</v>
+        <v>26579</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>53318</v>
+        <v>52959</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06209155426601119</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04457693280117835</v>
+        <v>0.04281091888741028</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0858810163171892</v>
+        <v>0.08530329369392918</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>43</v>
@@ -7136,19 +7136,19 @@
         <v>30468</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>22716</v>
+        <v>22201</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>40557</v>
+        <v>40187</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04897220232882098</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03651210941819404</v>
+        <v>0.03568424124694045</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0651902054579013</v>
+        <v>0.06459507190111988</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>77</v>
@@ -7157,19 +7157,19 @@
         <v>69016</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>53903</v>
+        <v>54575</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>86634</v>
+        <v>86199</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05552500486742581</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04336599626790534</v>
+        <v>0.04390689385472582</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06969847739562164</v>
+        <v>0.06934878883747249</v>
       </c>
     </row>
     <row r="11">
@@ -7186,19 +7186,19 @@
         <v>582288</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>567519</v>
+        <v>567878</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>593162</v>
+        <v>594258</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.937908445733989</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9141189836828109</v>
+        <v>0.9146967063060707</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9554230671988215</v>
+        <v>0.9571890811125896</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>803</v>
@@ -7207,19 +7207,19 @@
         <v>591671</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>581582</v>
+        <v>581952</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>599423</v>
+        <v>599938</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9510277976711788</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9348097945420989</v>
+        <v>0.9354049280988801</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9634878905818062</v>
+        <v>0.9643157587530596</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1315</v>
@@ -7228,19 +7228,19 @@
         <v>1173960</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1156342</v>
+        <v>1156777</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1189073</v>
+        <v>1188401</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9444749951325742</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9303015226043786</v>
+        <v>0.9306512111625276</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9566340037320945</v>
+        <v>0.956093106145274</v>
       </c>
     </row>
     <row r="12">
@@ -7332,19 +7332,19 @@
         <v>55935</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>42812</v>
+        <v>40437</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>73233</v>
+        <v>73073</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0798367896569324</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06110545744106532</v>
+        <v>0.05771662028820451</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1045264364038551</v>
+        <v>0.1042984313956307</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>50</v>
@@ -7353,19 +7353,19 @@
         <v>32617</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>24855</v>
+        <v>24974</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>43156</v>
+        <v>43075</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04426297070725881</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03372928413552627</v>
+        <v>0.03389126007937106</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0585654621662912</v>
+        <v>0.05845537997654752</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>103</v>
@@ -7374,19 +7374,19 @@
         <v>88552</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>71931</v>
+        <v>70122</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>105192</v>
+        <v>105711</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.06160110406331843</v>
+        <v>0.06160110406331844</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05003903550258428</v>
+        <v>0.04878044751872684</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07317690161382052</v>
+        <v>0.07353762356761258</v>
       </c>
     </row>
     <row r="14">
@@ -7403,19 +7403,19 @@
         <v>644682</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>627384</v>
+        <v>627544</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>657805</v>
+        <v>660180</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9201632103430677</v>
+        <v>0.9201632103430675</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8954735635961447</v>
+        <v>0.8957015686043692</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9388945425589348</v>
+        <v>0.9422833797117957</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1091</v>
@@ -7424,19 +7424,19 @@
         <v>704269</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>693730</v>
+        <v>693811</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>712031</v>
+        <v>711912</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9557370292927412</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9414345378337087</v>
+        <v>0.9415446200234524</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9662707158644737</v>
+        <v>0.9661087399206287</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1703</v>
@@ -7445,19 +7445,19 @@
         <v>1348952</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1332312</v>
+        <v>1331793</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1365573</v>
+        <v>1367382</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9383988959366815</v>
+        <v>0.9383988959366816</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9268230983861796</v>
+        <v>0.9264623764323873</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9499609644974158</v>
+        <v>0.9512195524812735</v>
       </c>
     </row>
     <row r="15">
@@ -7549,19 +7549,19 @@
         <v>31496</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>22117</v>
+        <v>21852</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>42808</v>
+        <v>43954</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05168851936871612</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03629604532646798</v>
+        <v>0.0358618530045113</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07025183006080511</v>
+        <v>0.07213240045304346</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>62</v>
@@ -7570,19 +7570,19 @@
         <v>38304</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>29868</v>
+        <v>28851</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>48689</v>
+        <v>48641</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06291139730744882</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04905645111497464</v>
+        <v>0.04738622459823783</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07996849637104257</v>
+        <v>0.0798896359772122</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>96</v>
@@ -7591,19 +7591,19 @@
         <v>69800</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>57256</v>
+        <v>56873</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>85945</v>
+        <v>85826</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05729769643009111</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04700061685711798</v>
+        <v>0.04668634494884816</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07055058952285626</v>
+        <v>0.07045290400873293</v>
       </c>
     </row>
     <row r="17">
@@ -7620,19 +7620,19 @@
         <v>577850</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>566538</v>
+        <v>565392</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>587229</v>
+        <v>587494</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9483114806312839</v>
+        <v>0.9483114806312837</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.929748169939195</v>
+        <v>0.9278675995469565</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.963703954673532</v>
+        <v>0.9641381469954886</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>940</v>
@@ -7641,19 +7641,19 @@
         <v>570551</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>560166</v>
+        <v>560214</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>578987</v>
+        <v>580004</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.937088602692551</v>
+        <v>0.9370886026925513</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9200315036289572</v>
+        <v>0.9201103640227878</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9509435488850252</v>
+        <v>0.952613775401762</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1569</v>
@@ -7662,19 +7662,19 @@
         <v>1148402</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1132257</v>
+        <v>1132376</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1160946</v>
+        <v>1161329</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9427023035699089</v>
+        <v>0.9427023035699091</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9294494104771437</v>
+        <v>0.9295470959912669</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.952999383142882</v>
+        <v>0.9533136550511515</v>
       </c>
     </row>
     <row r="18">
@@ -7766,19 +7766,19 @@
         <v>18137</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>11891</v>
+        <v>12130</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>25663</v>
+        <v>25582</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04455328747516653</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02921159790573363</v>
+        <v>0.02979834560984257</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06304221379431965</v>
+        <v>0.06284267742536701</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>67</v>
@@ -7787,19 +7787,19 @@
         <v>36209</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>28819</v>
+        <v>27831</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>45702</v>
+        <v>44315</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.08244912006552883</v>
+        <v>0.08244912006552882</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06562106226723786</v>
+        <v>0.06337269164071813</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1040657664134894</v>
+        <v>0.1009072788078678</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>93</v>
@@ -7808,19 +7808,19 @@
         <v>54346</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>44113</v>
+        <v>43636</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>66299</v>
+        <v>66280</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.06421963740100083</v>
+        <v>0.06421963740100084</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0521282935581807</v>
+        <v>0.05156426790657344</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07834500264343752</v>
+        <v>0.07832200362624157</v>
       </c>
     </row>
     <row r="20">
@@ -7837,19 +7837,19 @@
         <v>388943</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>381417</v>
+        <v>381498</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>395189</v>
+        <v>394950</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9554467125248335</v>
+        <v>0.9554467125248336</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9369577862056803</v>
+        <v>0.9371573225746329</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9707884020942664</v>
+        <v>0.9702016543901574</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>760</v>
@@ -7858,19 +7858,19 @@
         <v>402957</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>393464</v>
+        <v>394851</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>410347</v>
+        <v>411335</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9175508799344713</v>
+        <v>0.9175508799344712</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8959342335865106</v>
+        <v>0.8990927211921322</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.934378937732762</v>
+        <v>0.9366273083592819</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1304</v>
@@ -7879,19 +7879,19 @@
         <v>791900</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>779947</v>
+        <v>779966</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>802133</v>
+        <v>802610</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9357803625989991</v>
+        <v>0.9357803625989992</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9216549973565624</v>
+        <v>0.9216779963737585</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9478717064418194</v>
+        <v>0.9484357320934266</v>
       </c>
     </row>
     <row r="21">
@@ -7983,19 +7983,19 @@
         <v>23013</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>15840</v>
+        <v>16620</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>30829</v>
+        <v>32110</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.07418667200668654</v>
+        <v>0.07418667200668652</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05106486915220521</v>
+        <v>0.05357969530185793</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09938564386831192</v>
+        <v>0.1035155997447582</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>111</v>
@@ -8004,19 +8004,19 @@
         <v>56654</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>46572</v>
+        <v>46905</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>67518</v>
+        <v>67591</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1219401655844126</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1002389388924532</v>
+        <v>0.1009561248299393</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1453224850186236</v>
+        <v>0.1454783003607488</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>149</v>
@@ -8025,19 +8025,19 @@
         <v>79667</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>66939</v>
+        <v>68702</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>93518</v>
+        <v>92925</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1028217927246127</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.08639474029591895</v>
+        <v>0.08866977216790377</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1206990232497063</v>
+        <v>0.1199333512246917</v>
       </c>
     </row>
     <row r="23">
@@ -8054,19 +8054,19 @@
         <v>287185</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>279369</v>
+        <v>278088</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>294358</v>
+        <v>293578</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9258133279933134</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9006143561316883</v>
+        <v>0.8964844002552418</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9489351308477949</v>
+        <v>0.946420304698142</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>770</v>
@@ -8075,19 +8075,19 @@
         <v>407955</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>397091</v>
+        <v>397018</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>418037</v>
+        <v>417704</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8780598344155874</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.854677514981376</v>
+        <v>0.8545216996392512</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8997610611075467</v>
+        <v>0.8990438751700606</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1190</v>
@@ -8096,19 +8096,19 @@
         <v>695140</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>681289</v>
+        <v>681882</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>707868</v>
+        <v>706105</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.8971782072753873</v>
+        <v>0.8971782072753872</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8793009767502934</v>
+        <v>0.8800666487753083</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9136052597040809</v>
+        <v>0.9113302278320959</v>
       </c>
     </row>
     <row r="24">
@@ -8200,19 +8200,19 @@
         <v>221023</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>191169</v>
+        <v>193808</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>253711</v>
+        <v>259539</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.06256369914428099</v>
+        <v>0.062563699144281</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05411317423927597</v>
+        <v>0.0548601524463539</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07181674781885777</v>
+        <v>0.07346635289311175</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>359</v>
@@ -8221,19 +8221,19 @@
         <v>232180</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>207722</v>
+        <v>206702</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>259480</v>
+        <v>259637</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.06215911422152013</v>
+        <v>0.06215911422152014</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05561134505675745</v>
+        <v>0.05533809892483401</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0694679133265199</v>
+        <v>0.06950992358706531</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>571</v>
@@ -8242,19 +8242,19 @@
         <v>453203</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>413735</v>
+        <v>411307</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>494975</v>
+        <v>496080</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.0623557707449064</v>
+        <v>0.06235577074490638</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05692546160552825</v>
+        <v>0.05659137421023271</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06810318948950893</v>
+        <v>0.06825525963253751</v>
       </c>
     </row>
     <row r="26">
@@ -8271,19 +8271,19 @@
         <v>3311739</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3279051</v>
+        <v>3273223</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3341593</v>
+        <v>3338954</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9374363008557191</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9281832521811423</v>
+        <v>0.9265336471068881</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9458868257607241</v>
+        <v>0.945139847553646</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5005</v>
@@ -8292,19 +8292,19 @@
         <v>3503071</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3475771</v>
+        <v>3475614</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3527529</v>
+        <v>3528549</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9378408857784798</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9305320866734801</v>
+        <v>0.9304900764129346</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9443886549432423</v>
+        <v>0.9446619010751661</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>8169</v>
@@ -8313,19 +8313,19 @@
         <v>6814810</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6773038</v>
+        <v>6771933</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6854278</v>
+        <v>6856706</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.9376442292550935</v>
+        <v>0.9376442292550937</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9318968105104909</v>
+        <v>0.9317447403674624</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9430745383944716</v>
+        <v>0.943408625789767</v>
       </c>
     </row>
     <row r="27">
